--- a/Mapa datos PEDT001 - TBL_CLILENTES.xlsx
+++ b/Mapa datos PEDT001 - TBL_CLILENTES.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="28455" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos Complementarios" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="154">
   <si>
     <t>Tabla</t>
   </si>
@@ -415,13 +420,76 @@
   </si>
   <si>
     <t>Fecha de actualización de expediente</t>
+  </si>
+  <si>
+    <t>BIRTHPL</t>
+  </si>
+  <si>
+    <t>PLD_Complementarios_Cliente</t>
+  </si>
+  <si>
+    <t>PEDT002</t>
+  </si>
+  <si>
+    <t>COD_RESNAT</t>
+  </si>
+  <si>
+    <t>E_MAIL</t>
+  </si>
+  <si>
+    <t>País Nacimiento</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>Datos complementarios del cliente</t>
+  </si>
+  <si>
+    <t>COD_PENAT</t>
+  </si>
+  <si>
+    <t>WORKPL</t>
+  </si>
+  <si>
+    <t>USLJOB</t>
+  </si>
+  <si>
+    <t>usljob</t>
+  </si>
+  <si>
+    <t>RFC_TIT</t>
+  </si>
+  <si>
+    <t>Dirección empresa donde labora</t>
+  </si>
+  <si>
+    <t>Lugar de nacimiento</t>
+  </si>
+  <si>
+    <t>País residencia</t>
+  </si>
+  <si>
+    <t>Correo electronico</t>
+  </si>
+  <si>
+    <t>Código nacionalidad</t>
+  </si>
+  <si>
+    <t>Nombre empresa donde labora</t>
+  </si>
+  <si>
+    <t>Cargo que ejerce</t>
+  </si>
+  <si>
+    <t>Registro federal de contribuyente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +529,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,52 +594,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -564,7 +648,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -572,22 +656,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,24 +680,24 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -623,27 +707,116 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -652,98 +825,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="14">
     <cellStyle name="60% - Énfasis1" xfId="5" builtinId="32"/>
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Correcto" xfId="1" builtinId="26"/>
     <cellStyle name="Énfasis1" xfId="4" builtinId="29"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,82 +1176,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70:P70"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="M3" s="32" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1120,12 +1259,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1135,54 +1274,54 @@
       <c r="W4" s="1"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="M6" s="32" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32" t="s">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32" t="s">
+      <c r="R6" s="28"/>
+      <c r="S6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32" t="s">
+      <c r="T6" s="28"/>
+      <c r="U6" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1191,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H7" s="1"/>
@@ -1200,10 +1339,10 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1212,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="R7" s="1"/>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T7" s="1"/>
@@ -1223,10 +1362,10 @@
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1235,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="1"/>
@@ -1244,19 +1383,19 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T8" s="1"/>
@@ -1267,15 +1406,15 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="1"/>
@@ -1288,10 +1427,10 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1300,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="1"/>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T9" s="1"/>
@@ -1311,19 +1450,19 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H10" s="1"/>
@@ -1332,10 +1471,10 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="8"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T10" s="1"/>
@@ -1355,40 +1494,40 @@
       <c r="W10" s="1"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R11" s="1"/>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T11" s="1"/>
@@ -1399,19 +1538,19 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H12" s="1"/>
@@ -1420,19 +1559,19 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T12" s="1"/>
@@ -1443,19 +1582,19 @@
       <c r="W12" s="1"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H13" s="1"/>
@@ -1464,19 +1603,19 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T13" s="1"/>
@@ -1487,19 +1626,19 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="1"/>
@@ -1508,19 +1647,19 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T14" s="1"/>
@@ -1531,40 +1670,40 @@
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T15" s="1"/>
@@ -1575,19 +1714,19 @@
       <c r="W15" s="1"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H16" s="1"/>
@@ -1596,10 +1735,10 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="8"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="1" t="s">
         <v>60</v>
       </c>
@@ -1608,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T16" s="1"/>
@@ -1619,19 +1758,19 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="1"/>
@@ -1640,10 +1779,10 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="1" t="s">
         <v>60</v>
       </c>
@@ -1652,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T17" s="1"/>
@@ -1663,19 +1802,19 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="1"/>
@@ -1684,10 +1823,10 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="8"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1696,7 +1835,7 @@
         <v>20</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T18" s="1"/>
@@ -1707,19 +1846,19 @@
       <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H19" s="1"/>
@@ -1728,19 +1867,19 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T19" s="1"/>
@@ -1751,15 +1890,15 @@
       <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F20" s="1"/>
@@ -1772,19 +1911,19 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R20" s="1"/>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T20" s="1"/>
@@ -1795,31 +1934,31 @@
       <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="13" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="14"/>
-      <c r="M21" s="8" t="s">
+      <c r="J21" s="10"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="8"/>
+      <c r="N21" s="16"/>
       <c r="O21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1828,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="R21" s="1"/>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T21" s="1"/>
@@ -1839,21 +1978,21 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="21"/>
-      <c r="M22" s="8" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="N22" s="8"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1862,7 +2001,7 @@
         <v>54</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T22" s="1"/>
@@ -1873,31 +2012,31 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="13" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="14"/>
-      <c r="M23" s="8" t="s">
+      <c r="J23" s="10"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="N23" s="8"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="1" t="s">
         <v>60</v>
       </c>
@@ -1906,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="R23" s="1"/>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T23" s="1"/>
@@ -1917,21 +2056,21 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="28"/>
-      <c r="M24" s="8" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="8"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1940,7 +2079,7 @@
         <v>25</v>
       </c>
       <c r="R24" s="1"/>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T24" s="1"/>
@@ -1951,21 +2090,21 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="21"/>
-      <c r="M25" s="8" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="M25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="N25" s="8"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +2113,7 @@
         <v>40</v>
       </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T25" s="1"/>
@@ -1985,19 +2124,19 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="1"/>
@@ -2006,10 +2145,10 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="1" t="s">
         <v>60</v>
       </c>
@@ -2027,19 +2166,19 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H27" s="1"/>
@@ -2048,19 +2187,19 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T27" s="1"/>
@@ -2071,19 +2210,19 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="1"/>
@@ -2092,19 +2231,19 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T28" s="1"/>
@@ -2115,15 +2254,15 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="1"/>
@@ -2136,19 +2275,19 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T29" s="1"/>
@@ -2159,15 +2298,15 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="1"/>
@@ -2180,38 +2319,38 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="13" t="s">
+      <c r="N30" s="3"/>
+      <c r="O30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="13">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="6">
         <v>3</v>
       </c>
-      <c r="R30" s="14"/>
-      <c r="S30" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="13" t="s">
+      <c r="R30" s="7"/>
+      <c r="S30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="14"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="1"/>
@@ -2224,32 +2363,32 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="21"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="9"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H32" s="1"/>
@@ -2258,10 +2397,10 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="N32" s="8"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2281,15 +2420,15 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F33" s="1"/>
@@ -2302,10 +2441,10 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="8"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2325,15 +2464,15 @@
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="1"/>
@@ -2346,10 +2485,10 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="8"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="1" t="s">
         <v>60</v>
       </c>
@@ -2367,19 +2506,19 @@
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H35" s="1"/>
@@ -2388,19 +2527,19 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R35" s="1"/>
-      <c r="S35" s="5" t="s">
+      <c r="S35" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T35" s="1"/>
@@ -2411,15 +2550,15 @@
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F36" s="1"/>
@@ -2432,19 +2571,19 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R36" s="1"/>
-      <c r="S36" s="5" t="s">
+      <c r="S36" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T36" s="1"/>
@@ -2455,19 +2594,19 @@
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H37" s="1"/>
@@ -2476,19 +2615,19 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R37" s="1"/>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T37" s="1"/>
@@ -2499,15 +2638,15 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="26"/>
+      <c r="C38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F38" s="1"/>
@@ -2520,19 +2659,19 @@
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R38" s="1"/>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T38" s="1"/>
@@ -2543,15 +2682,15 @@
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F39" s="1"/>
@@ -2564,19 +2703,19 @@
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R39" s="1"/>
-      <c r="S39" s="5" t="s">
+      <c r="S39" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T39" s="1"/>
@@ -2587,19 +2726,19 @@
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H40" s="1"/>
@@ -2608,19 +2747,19 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Q40" s="5" t="s">
+      <c r="Q40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R40" s="1"/>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T40" s="1"/>
@@ -2635,15 +2774,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H41" s="1"/>
@@ -2652,19 +2791,19 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R41" s="1"/>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T41" s="1"/>
@@ -2675,19 +2814,19 @@
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="8"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H42" s="1"/>
@@ -2696,10 +2835,10 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N42" s="8"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="1" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2847,7 @@
         <v>10</v>
       </c>
       <c r="R42" s="1"/>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T42" s="1"/>
@@ -2719,15 +2858,15 @@
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="1"/>
@@ -2740,19 +2879,19 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T43" s="1"/>
@@ -2763,19 +2902,19 @@
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H44" s="1"/>
@@ -2784,10 +2923,10 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="9"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2803,19 +2942,19 @@
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="10"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H45" s="1"/>
@@ -2824,19 +2963,19 @@
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R45" s="1"/>
-      <c r="S45" s="5" t="s">
+      <c r="S45" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T45" s="1"/>
@@ -2847,19 +2986,19 @@
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F46" s="1"/>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H46" s="1"/>
@@ -2868,19 +3007,19 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P46" s="1"/>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R46" s="1"/>
-      <c r="S46" s="5" t="s">
+      <c r="S46" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T46" s="1"/>
@@ -2891,15 +3030,15 @@
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F47" s="1"/>
@@ -2912,10 +3051,10 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="N47" s="8"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="1" t="s">
         <v>60</v>
       </c>
@@ -2924,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="1"/>
-      <c r="S47" s="5" t="s">
+      <c r="S47" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T47" s="1"/>
@@ -2935,15 +3074,15 @@
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F48" s="1"/>
@@ -2956,19 +3095,19 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Q48" s="5" t="s">
+      <c r="Q48" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R48" s="1"/>
-      <c r="S48" s="5" t="s">
+      <c r="S48" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T48" s="1"/>
@@ -2979,19 +3118,19 @@
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H49" s="1"/>
@@ -3000,19 +3139,19 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="O49" s="5" t="s">
+      <c r="O49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P49" s="1"/>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R49" s="1"/>
-      <c r="S49" s="5" t="s">
+      <c r="S49" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T49" s="1"/>
@@ -3023,15 +3162,15 @@
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F50" s="1"/>
@@ -3044,19 +3183,19 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P50" s="1"/>
-      <c r="Q50" s="5" t="s">
+      <c r="Q50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R50" s="1"/>
-      <c r="S50" s="5" t="s">
+      <c r="S50" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T50" s="1"/>
@@ -3067,19 +3206,19 @@
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F51" s="1"/>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H51" s="1"/>
@@ -3088,19 +3227,19 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Q51" s="5" t="s">
+      <c r="Q51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R51" s="1"/>
-      <c r="S51" s="5" t="s">
+      <c r="S51" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T51" s="1"/>
@@ -3111,19 +3250,19 @@
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="26"/>
+      <c r="C52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F52" s="1"/>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H52" s="1"/>
@@ -3132,19 +3271,19 @@
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Q52" s="5" t="s">
+      <c r="Q52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R52" s="1"/>
-      <c r="S52" s="5" t="s">
+      <c r="S52" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T52" s="1"/>
@@ -3155,19 +3294,19 @@
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="26"/>
+      <c r="C53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H53" s="1"/>
@@ -3176,19 +3315,19 @@
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N53" s="1"/>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R53" s="1"/>
-      <c r="S53" s="5" t="s">
+      <c r="S53" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T53" s="1"/>
@@ -3199,19 +3338,19 @@
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="26"/>
+      <c r="C54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="F54" s="1"/>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H54" s="1"/>
@@ -3220,19 +3359,19 @@
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="5" t="s">
+      <c r="Q54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R54" s="1"/>
-      <c r="S54" s="5" t="s">
+      <c r="S54" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T54" s="1"/>
@@ -3254,10 +3393,10 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="N55" s="9"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="1" t="s">
         <v>60</v>
       </c>
@@ -3266,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="1"/>
-      <c r="S55" s="5" t="s">
+      <c r="S55" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T55" s="1"/>
@@ -3288,10 +3427,10 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="N56" s="9"/>
+      <c r="N56" s="25"/>
       <c r="O56" s="1" t="s">
         <v>60</v>
       </c>
@@ -3300,7 +3439,7 @@
         <v>30</v>
       </c>
       <c r="R56" s="1"/>
-      <c r="S56" s="5" t="s">
+      <c r="S56" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T56" s="1"/>
@@ -3322,10 +3461,10 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="N57" s="9"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="1" t="s">
         <v>60</v>
       </c>
@@ -3334,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="R57" s="1"/>
-      <c r="S57" s="5" t="s">
+      <c r="S57" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T57" s="1"/>
@@ -3356,19 +3495,19 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="N58" s="9"/>
+      <c r="N58" s="25"/>
       <c r="O58" s="1" t="s">
         <v>124</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Q58" s="5" t="s">
+      <c r="Q58" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R58" s="1"/>
-      <c r="S58" s="5" t="s">
+      <c r="S58" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T58" s="1"/>
@@ -3390,10 +3529,10 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="N59" s="9"/>
+      <c r="N59" s="25"/>
       <c r="O59" s="1" t="s">
         <v>60</v>
       </c>
@@ -3402,7 +3541,7 @@
         <v>45</v>
       </c>
       <c r="R59" s="1"/>
-      <c r="S59" s="5" t="s">
+      <c r="S59" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T59" s="1"/>
@@ -3424,19 +3563,19 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="N60" s="9"/>
+      <c r="N60" s="25"/>
       <c r="O60" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P60" s="1"/>
-      <c r="Q60" s="5" t="s">
+      <c r="Q60" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R60" s="1"/>
-      <c r="S60" s="5" t="s">
+      <c r="S60" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T60" s="1"/>
@@ -3458,10 +3597,10 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="M61" s="9" t="s">
+      <c r="M61" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="N61" s="9"/>
+      <c r="N61" s="25"/>
       <c r="O61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3470,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="R61" s="1"/>
-      <c r="S61" s="5" t="s">
+      <c r="S61" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T61" s="1"/>
@@ -3492,10 +3631,10 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="N62" s="9"/>
+      <c r="N62" s="25"/>
       <c r="O62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="R62" s="1"/>
-      <c r="S62" s="5" t="s">
+      <c r="S62" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T62" s="1"/>
@@ -3526,19 +3665,19 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="M63" s="9" t="s">
+      <c r="M63" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="N63" s="9"/>
+      <c r="N63" s="25"/>
       <c r="O63" s="1" t="s">
         <v>87</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="17" t="s">
         <v>90</v>
       </c>
       <c r="R63" s="1"/>
-      <c r="S63" s="5" t="s">
+      <c r="S63" s="17" t="s">
         <v>90</v>
       </c>
       <c r="T63" s="1"/>
@@ -4054,29 +4193,728 @@
     </row>
   </sheetData>
   <mergeCells count="780">
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="Q30:R31"/>
-    <mergeCell ref="S30:T31"/>
-    <mergeCell ref="U30:W31"/>
-    <mergeCell ref="C23:D25"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="I23:K25"/>
-    <mergeCell ref="G23:H25"/>
-    <mergeCell ref="E23:F25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:K79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:K81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:K83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="U56:W56"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="U62:W62"/>
     <mergeCell ref="U81:W81"/>
     <mergeCell ref="U82:W82"/>
     <mergeCell ref="U83:W83"/>
@@ -4101,254 +4939,29 @@
     <mergeCell ref="U63:W63"/>
     <mergeCell ref="U64:W64"/>
     <mergeCell ref="U65:W65"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="U56:W56"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="S84:T84"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="S82:T82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="S81:T81"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="S78:T78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="S79:T79"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="S76:T76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="S74:T74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="S75:T75"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="S72:T72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="O61:P61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="S61:T61"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="I23:K25"/>
+    <mergeCell ref="G23:H25"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="S30:T31"/>
+    <mergeCell ref="U30:W31"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="Q28:R28"/>
@@ -4357,509 +4970,2919 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S29:T29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="599"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="M1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="M3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="M6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="45"/>
+      <c r="O8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="7"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="780">
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="S84:T84"/>
+    <mergeCell ref="U84:W84"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="S83:T83"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="S82:T82"/>
+    <mergeCell ref="U82:W82"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="G83:H83"/>
     <mergeCell ref="I83:K83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:K84"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:W81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="Q80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:W80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="G81:H81"/>
     <mergeCell ref="I81:K81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:K82"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="S79:T79"/>
+    <mergeCell ref="U79:W79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="S78:T78"/>
+    <mergeCell ref="U78:W78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="I79:K79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="U76:W76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="I77:K77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="S75:T75"/>
+    <mergeCell ref="U75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="S74:T74"/>
+    <mergeCell ref="U74:W74"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="G75:H75"/>
     <mergeCell ref="I75:K75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="U73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="S72:T72"/>
+    <mergeCell ref="U72:W72"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="G73:H73"/>
     <mergeCell ref="I73:K73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="U71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:W70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="I71:K71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="U68:W68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="I69:K69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:W66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="I67:K67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="U64:W64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="I65:K65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:W62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="G63:H63"/>
     <mergeCell ref="I63:K63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="S61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:W60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="I61:K61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:W58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="I59:K59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:W56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:W54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:K55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:W52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:K53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:W50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:K51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:W48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:K49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:W46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:W44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="I45:K45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:W42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:W40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="I41:K41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:W38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="I39:K39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:W36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:W34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:W32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="Q30:R31"/>
+    <mergeCell ref="S30:T31"/>
+    <mergeCell ref="U30:W31"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:W29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="O27:P27"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:W27"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="U23:W23"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:D25"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="G23:H25"/>
+    <mergeCell ref="I23:K25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:W22"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="U20:W20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:K22"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:K19"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="U16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="U14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:K13"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:W10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="U8:W8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:W7"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:N8"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:W4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="M1:W1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>